--- a/REGULAR/CPDO/LOYOLA, JANE.xlsx
+++ b/REGULAR/CPDO/LOYOLA, JANE.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="285">
   <si>
     <t>PERIOD</t>
   </si>
@@ -845,6 +845,51 @@
   </si>
   <si>
     <t>UT(1-1-59)</t>
+  </si>
+  <si>
+    <t>A(9-0-0)</t>
+  </si>
+  <si>
+    <t>12/15,16,20-23,27-29/2022</t>
+  </si>
+  <si>
+    <t>A(10-0-0)</t>
+  </si>
+  <si>
+    <t>11/2-4,8,11,17,18,22,25,28/2022</t>
+  </si>
+  <si>
+    <t>A(12-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-3-3)</t>
+  </si>
+  <si>
+    <t>A(17-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-3-13)</t>
+  </si>
+  <si>
+    <t>A(7-0-0)</t>
+  </si>
+  <si>
+    <t>5/10,16,17,24-27/2022</t>
+  </si>
+  <si>
+    <t>9/1,2,5,7-9,12-15,19-23,29,30/2022</t>
+  </si>
+  <si>
+    <t>10/3-7,13,14, 24-28/2022</t>
+  </si>
+  <si>
+    <t>UT(1-6-2)</t>
+  </si>
+  <si>
+    <t>UT(0-2-2)</t>
+  </si>
+  <si>
+    <t>UT(0-6-29)</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1768,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1811,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1830,7 +1875,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1935,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +2001,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,7 +2064,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2162,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2221,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2286,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2329,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2404,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2590,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2656,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2714,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2780,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2791,7 +2836,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2866,7 +2911,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2909,7 +2954,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +3020,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3031,7 +3076,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3129,7 +3174,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3192,7 +3237,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3258,7 +3303,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K305" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K311" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3636,12 +3681,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K305"/>
+  <dimension ref="A2:K311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A258" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A255" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E270" sqref="E270"/>
+      <selection pane="bottomLeft" activeCell="F266" sqref="F266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3798,7 +3843,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>12.086999999999961</v>
+        <v>-46.513999999999953</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -9550,19 +9595,19 @@
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B263" s="20"/>
-      <c r="C263" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D263" s="39"/>
+      <c r="A263" s="40"/>
+      <c r="B263" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="C263" s="13"/>
+      <c r="D263" s="39">
+        <v>0.81</v>
+      </c>
       <c r="E263" s="9"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G263" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H263" s="39"/>
       <c r="I263" s="9"/>
@@ -9571,13 +9616,17 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B264" s="20"/>
+        <v>44652</v>
+      </c>
+      <c r="B264" s="20" t="s">
+        <v>283</v>
+      </c>
       <c r="C264" s="13">
         <v>1.25</v>
       </c>
-      <c r="D264" s="39"/>
+      <c r="D264" s="39">
+        <v>0.254</v>
+      </c>
       <c r="E264" s="9"/>
       <c r="F264" s="20"/>
       <c r="G264" s="13">
@@ -9591,16 +9640,16 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="C265" s="13">
         <v>1.25</v>
       </c>
       <c r="D265" s="39">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E265" s="9"/>
       <c r="F265" s="20"/>
@@ -9612,23 +9661,23 @@
       <c r="I265" s="9"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B266" s="20"/>
-      <c r="C266" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D266" s="39"/>
+      <c r="A266" s="40"/>
+      <c r="B266" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C266" s="13"/>
+      <c r="D266" s="39">
+        <v>1.754</v>
+      </c>
       <c r="E266" s="9"/>
       <c r="F266" s="20"/>
-      <c r="G266" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G266" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H266" s="39"/>
       <c r="I266" s="9"/>
@@ -9637,13 +9686,17 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B267" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B267" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="C267" s="13">
         <v>1.25</v>
       </c>
-      <c r="D267" s="39"/>
+      <c r="D267" s="39">
+        <v>15</v>
+      </c>
       <c r="E267" s="9"/>
       <c r="F267" s="20"/>
       <c r="G267" s="13">
@@ -9653,11 +9706,13 @@
       <c r="H267" s="39"/>
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
-      <c r="K267" s="20"/>
+      <c r="K267" s="20" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
-        <v>44805</v>
+        <v>44743</v>
       </c>
       <c r="B268" s="20"/>
       <c r="C268" s="13">
@@ -9677,7 +9732,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
-        <v>44835</v>
+        <v>44774</v>
       </c>
       <c r="B269" s="20"/>
       <c r="C269" s="13">
@@ -9697,16 +9752,16 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
-        <v>44866</v>
+        <v>44805</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C270" s="13">
         <v>1.25</v>
       </c>
       <c r="D270" s="39">
-        <v>1.248</v>
+        <v>17</v>
       </c>
       <c r="E270" s="9"/>
       <c r="F270" s="20"/>
@@ -9717,26 +9772,24 @@
       <c r="H270" s="39"/>
       <c r="I270" s="9"/>
       <c r="J270" s="11"/>
-      <c r="K270" s="20"/>
+      <c r="K270" s="20" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="C271" s="13">
-        <v>1.25</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C271" s="13"/>
       <c r="D271" s="39">
-        <v>1.075</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="E271" s="9"/>
       <c r="F271" s="20"/>
-      <c r="G271" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G271" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H271" s="39"/>
       <c r="I271" s="9"/>
@@ -9744,37 +9797,45 @@
       <c r="K271" s="20"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="B272" s="20"/>
-      <c r="C272" s="13"/>
-      <c r="D272" s="39"/>
+      <c r="A272" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B272" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C272" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D272" s="39">
+        <v>12</v>
+      </c>
       <c r="E272" s="9"/>
       <c r="F272" s="20"/>
-      <c r="G272" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G272" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H272" s="39"/>
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
-      <c r="K272" s="20"/>
+      <c r="K272" s="20" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B273" s="20"/>
-      <c r="C273" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D273" s="39"/>
+      <c r="A273" s="40"/>
+      <c r="B273" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C273" s="13"/>
+      <c r="D273" s="39">
+        <v>0.38100000000000001</v>
+      </c>
       <c r="E273" s="9"/>
       <c r="F273" s="20"/>
-      <c r="G273" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G273" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H273" s="39"/>
       <c r="I273" s="9"/>
@@ -9783,13 +9844,17 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B274" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B274" s="20" t="s">
+        <v>269</v>
+      </c>
       <c r="C274" s="13">
         <v>1.25</v>
       </c>
-      <c r="D274" s="39"/>
+      <c r="D274" s="39">
+        <v>1.248</v>
+      </c>
       <c r="E274" s="9"/>
       <c r="F274" s="20"/>
       <c r="G274" s="13">
@@ -9802,34 +9867,40 @@
       <c r="K274" s="20"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B275" s="20"/>
-      <c r="C275" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D275" s="39"/>
+      <c r="A275" s="40"/>
+      <c r="B275" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C275" s="13"/>
+      <c r="D275" s="39">
+        <v>10</v>
+      </c>
       <c r="E275" s="9"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G275" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H275" s="39"/>
       <c r="I275" s="9"/>
       <c r="J275" s="11"/>
-      <c r="K275" s="20"/>
+      <c r="K275" s="20" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B276" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B276" s="20" t="s">
+        <v>265</v>
+      </c>
       <c r="C276" s="13">
         <v>1.25</v>
       </c>
-      <c r="D276" s="39"/>
+      <c r="D276" s="39">
+        <v>1.075</v>
+      </c>
       <c r="E276" s="9"/>
       <c r="F276" s="20"/>
       <c r="G276" s="13">
@@ -9842,83 +9913,79 @@
       <c r="K276" s="20"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B277" s="20"/>
-      <c r="C277" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D277" s="39"/>
+      <c r="A277" s="40"/>
+      <c r="B277" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C277" s="13"/>
+      <c r="D277" s="39">
+        <v>9</v>
+      </c>
       <c r="E277" s="9"/>
       <c r="F277" s="20"/>
-      <c r="G277" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G277" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H277" s="39"/>
       <c r="I277" s="9"/>
       <c r="J277" s="11"/>
-      <c r="K277" s="20"/>
+      <c r="K277" s="20" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B278" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C278" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A278" s="48" t="s">
+        <v>263</v>
+      </c>
+      <c r="B278" s="20"/>
+      <c r="C278" s="13"/>
       <c r="D278" s="39"/>
       <c r="E278" s="9"/>
       <c r="F278" s="20"/>
-      <c r="G278" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G278" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H278" s="39"/>
       <c r="I278" s="9"/>
       <c r="J278" s="11"/>
-      <c r="K278" s="50">
-        <v>45093</v>
-      </c>
+      <c r="K278" s="20"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="40"/>
-      <c r="B279" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C279" s="13"/>
+      <c r="A279" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B279" s="20"/>
+      <c r="C279" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D279" s="39"/>
       <c r="E279" s="9"/>
       <c r="F279" s="20"/>
-      <c r="G279" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H279" s="39">
-        <v>1</v>
-      </c>
+      <c r="G279" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H279" s="39"/>
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
-      <c r="K279" s="50">
-        <v>45097</v>
-      </c>
+      <c r="K279" s="20"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
-        <v>45108</v>
+        <v>44958</v>
       </c>
       <c r="B280" s="20"/>
-      <c r="C280" s="13"/>
+      <c r="C280" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D280" s="39"/>
       <c r="E280" s="9"/>
       <c r="F280" s="20"/>
-      <c r="G280" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G280" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H280" s="39"/>
       <c r="I280" s="9"/>
@@ -9927,16 +9994,18 @@
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
-        <v>45139</v>
+        <v>44986</v>
       </c>
       <c r="B281" s="20"/>
-      <c r="C281" s="13"/>
+      <c r="C281" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D281" s="39"/>
       <c r="E281" s="9"/>
       <c r="F281" s="20"/>
-      <c r="G281" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G281" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H281" s="39"/>
       <c r="I281" s="9"/>
@@ -9945,16 +10014,18 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
-        <v>45170</v>
+        <v>45017</v>
       </c>
       <c r="B282" s="20"/>
-      <c r="C282" s="13"/>
+      <c r="C282" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D282" s="39"/>
       <c r="E282" s="9"/>
       <c r="F282" s="20"/>
-      <c r="G282" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G282" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H282" s="39"/>
       <c r="I282" s="9"/>
@@ -9963,16 +10034,18 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
-        <v>45200</v>
+        <v>45047</v>
       </c>
       <c r="B283" s="20"/>
-      <c r="C283" s="13"/>
+      <c r="C283" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D283" s="39"/>
       <c r="E283" s="9"/>
       <c r="F283" s="20"/>
-      <c r="G283" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G283" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H283" s="39"/>
       <c r="I283" s="9"/>
@@ -9981,27 +10054,33 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B284" s="20"/>
-      <c r="C284" s="13"/>
+        <v>45078</v>
+      </c>
+      <c r="B284" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C284" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D284" s="39"/>
       <c r="E284" s="9"/>
       <c r="F284" s="20"/>
-      <c r="G284" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G284" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H284" s="39"/>
       <c r="I284" s="9"/>
       <c r="J284" s="11"/>
-      <c r="K284" s="20"/>
+      <c r="K284" s="50">
+        <v>45093</v>
+      </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B285" s="20"/>
+      <c r="A285" s="40"/>
+      <c r="B285" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C285" s="13"/>
       <c r="D285" s="39"/>
       <c r="E285" s="9"/>
@@ -10010,14 +10089,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H285" s="39"/>
+      <c r="H285" s="39">
+        <v>1</v>
+      </c>
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
-      <c r="K285" s="20"/>
+      <c r="K285" s="50">
+        <v>45097</v>
+      </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
-        <v>45292</v>
+        <v>45108</v>
       </c>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -10035,7 +10118,7 @@
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
-        <v>45323</v>
+        <v>45139</v>
       </c>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -10052,7 +10135,9 @@
       <c r="K287" s="20"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="40"/>
+      <c r="A288" s="40">
+        <v>45170</v>
+      </c>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
       <c r="D288" s="39"/>
@@ -10068,7 +10153,9 @@
       <c r="K288" s="20"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A289" s="40"/>
+      <c r="A289" s="40">
+        <v>45200</v>
+      </c>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
       <c r="D289" s="39"/>
@@ -10084,7 +10171,9 @@
       <c r="K289" s="20"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A290" s="40"/>
+      <c r="A290" s="40">
+        <v>45231</v>
+      </c>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
       <c r="D290" s="39"/>
@@ -10100,7 +10189,9 @@
       <c r="K290" s="20"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="40"/>
+      <c r="A291" s="40">
+        <v>45261</v>
+      </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
       <c r="D291" s="39"/>
@@ -10116,7 +10207,9 @@
       <c r="K291" s="20"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="40"/>
+      <c r="A292" s="40">
+        <v>45292</v>
+      </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
       <c r="D292" s="39"/>
@@ -10132,7 +10225,9 @@
       <c r="K292" s="20"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="40"/>
+      <c r="A293" s="40">
+        <v>45323</v>
+      </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
       <c r="D293" s="39"/>
@@ -10324,20 +10419,116 @@
       <c r="K304" s="20"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="41"/>
-      <c r="B305" s="15"/>
-      <c r="C305" s="42"/>
-      <c r="D305" s="43"/>
+      <c r="A305" s="40"/>
+      <c r="B305" s="20"/>
+      <c r="C305" s="13"/>
+      <c r="D305" s="39"/>
       <c r="E305" s="9"/>
-      <c r="F305" s="15"/>
-      <c r="G305" s="42" t="str">
+      <c r="F305" s="20"/>
+      <c r="G305" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H305" s="43"/>
+      <c r="H305" s="39"/>
       <c r="I305" s="9"/>
-      <c r="J305" s="12"/>
-      <c r="K305" s="15"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="20"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" s="40"/>
+      <c r="B306" s="20"/>
+      <c r="C306" s="13"/>
+      <c r="D306" s="39"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="20"/>
+      <c r="G306" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H306" s="39"/>
+      <c r="I306" s="9"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="20"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" s="40"/>
+      <c r="B307" s="20"/>
+      <c r="C307" s="13"/>
+      <c r="D307" s="39"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="20"/>
+      <c r="G307" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H307" s="39"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="20"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" s="40"/>
+      <c r="B308" s="20"/>
+      <c r="C308" s="13"/>
+      <c r="D308" s="39"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="20"/>
+      <c r="G308" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H308" s="39"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="20"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" s="40"/>
+      <c r="B309" s="20"/>
+      <c r="C309" s="13"/>
+      <c r="D309" s="39"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="20"/>
+      <c r="G309" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H309" s="39"/>
+      <c r="I309" s="9"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="20"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="40"/>
+      <c r="B310" s="20"/>
+      <c r="C310" s="13"/>
+      <c r="D310" s="39"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="20"/>
+      <c r="G310" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H310" s="39"/>
+      <c r="I310" s="9"/>
+      <c r="J310" s="11"/>
+      <c r="K310" s="20"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" s="41"/>
+      <c r="B311" s="15"/>
+      <c r="C311" s="42"/>
+      <c r="D311" s="43"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="15"/>
+      <c r="G311" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H311" s="43"/>
+      <c r="I311" s="9"/>
+      <c r="J311" s="12"/>
+      <c r="K311" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10494,17 +10685,17 @@
         <v>8.75</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.248</v>
+        <v>0.81</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
